--- a/StudyPlan20221217.xlsx
+++ b/StudyPlan20221217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22560" windowHeight="10212" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段目标" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="551">
   <si>
     <t>当前的重点内容：</t>
   </si>
@@ -3799,7 +3799,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3925,9 +3925,9 @@
   <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -5641,7 +5641,9 @@
         <v>203</v>
       </c>
       <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
+      <c r="F100" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G100" s="16" t="s">
         <v>204</v>
       </c>
@@ -5658,7 +5660,9 @@
         <v>206</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
+      <c r="F101" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G101" s="16" t="s">
         <v>207</v>
       </c>
@@ -5677,7 +5681,9 @@
         <v>143</v>
       </c>
       <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
+      <c r="F102" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G102" s="16" t="s">
         <v>208</v>
       </c>
@@ -5692,7 +5698,9 @@
         <v>209</v>
       </c>
       <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
+      <c r="F103" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G103" s="16" t="s">
         <v>210</v>
       </c>
@@ -5711,7 +5719,9 @@
         <v>211</v>
       </c>
       <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
+      <c r="F104" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G104" s="16" t="s">
         <v>212</v>
       </c>
@@ -5726,7 +5736,9 @@
         <v>213</v>
       </c>
       <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
+      <c r="F105" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G105" s="16" t="s">
         <v>214</v>
       </c>
@@ -5741,7 +5753,9 @@
         <v>215</v>
       </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
+      <c r="F106" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G106" s="16" t="s">
         <v>216</v>
       </c>
@@ -5760,7 +5774,9 @@
         <v>217</v>
       </c>
       <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
+      <c r="F107" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G107" s="16" t="s">
         <v>218</v>
       </c>
@@ -5775,7 +5791,9 @@
         <v>219</v>
       </c>
       <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
+      <c r="F108" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G108" s="16" t="s">
         <v>220</v>
       </c>
@@ -5792,7 +5810,9 @@
         <v>222</v>
       </c>
       <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
+      <c r="F109" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="14"/>
